--- a/www/IndicatorsPerCountry/Ireland_GDPperCapita_TerritorialRef_1946_2012_CCode_372.xlsx
+++ b/www/IndicatorsPerCountry/Ireland_GDPperCapita_TerritorialRef_1946_2012_CCode_372.xlsx
@@ -321,13 +321,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Ireland_GDPperCapita_TerritorialRef_1946_2012_CCode_372.xlsx
+++ b/www/IndicatorsPerCountry/Ireland_GDPperCapita_TerritorialRef_1946_2012_CCode_372.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="111">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,262 +36,280 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>877</t>
+    <t>1398</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1775</t>
-  </si>
-  <si>
-    <t>2736</t>
-  </si>
-  <si>
-    <t>2533</t>
-  </si>
-  <si>
-    <t>2598</t>
-  </si>
-  <si>
-    <t>2575</t>
-  </si>
-  <si>
-    <t>2569</t>
-  </si>
-  <si>
-    <t>2573</t>
-  </si>
-  <si>
-    <t>2572</t>
-  </si>
-  <si>
-    <t>2653</t>
-  </si>
-  <si>
-    <t>2737</t>
-  </si>
-  <si>
-    <t>2824</t>
-  </si>
-  <si>
-    <t>2897</t>
-  </si>
-  <si>
-    <t>2972</t>
-  </si>
-  <si>
-    <t>2885</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>2882</t>
-  </si>
-  <si>
-    <t>2966</t>
-  </si>
-  <si>
-    <t>3052</t>
-  </si>
-  <si>
-    <t>2957</t>
-  </si>
-  <si>
-    <t>3019</t>
-  </si>
-  <si>
-    <t>3092</t>
-  </si>
-  <si>
-    <t>3230</t>
-  </si>
-  <si>
-    <t>3404</t>
-  </si>
-  <si>
-    <t>3453</t>
-  </si>
-  <si>
-    <t>3544</t>
-  </si>
-  <si>
-    <t>3642</t>
-  </si>
-  <si>
-    <t>3747</t>
-  </si>
-  <si>
-    <t>3794</t>
-  </si>
-  <si>
-    <t>3920</t>
-  </si>
-  <si>
-    <t>3897</t>
-  </si>
-  <si>
-    <t>3914</t>
-  </si>
-  <si>
-    <t>3870</t>
+    <t>2829</t>
+  </si>
+  <si>
+    <t>4361</t>
   </si>
   <si>
     <t>4038</t>
   </si>
   <si>
-    <t>4282</t>
-  </si>
-  <si>
-    <t>4508</t>
-  </si>
-  <si>
-    <t>4636</t>
-  </si>
-  <si>
-    <t>4821</t>
-  </si>
-  <si>
-    <t>4986</t>
-  </si>
-  <si>
-    <t>5051</t>
-  </si>
-  <si>
-    <t>5080</t>
-  </si>
-  <si>
-    <t>5352</t>
-  </si>
-  <si>
-    <t>5770</t>
-  </si>
-  <si>
-    <t>6089</t>
-  </si>
-  <si>
-    <t>6199</t>
-  </si>
-  <si>
-    <t>6354</t>
-  </si>
-  <si>
-    <t>6663</t>
-  </si>
-  <si>
-    <t>6867</t>
-  </si>
-  <si>
-    <t>7042</t>
-  </si>
-  <si>
-    <t>7316</t>
-  </si>
-  <si>
-    <t>7302</t>
-  </si>
-  <si>
-    <t>7795</t>
-  </si>
-  <si>
-    <t>8250</t>
-  </si>
-  <si>
-    <t>8366</t>
-  </si>
-  <si>
-    <t>8541</t>
-  </si>
-  <si>
-    <t>8716</t>
-  </si>
-  <si>
-    <t>8821</t>
-  </si>
-  <si>
-    <t>8740</t>
-  </si>
-  <si>
-    <t>9056</t>
-  </si>
-  <si>
-    <t>9306</t>
-  </si>
-  <si>
-    <t>9265</t>
-  </si>
-  <si>
-    <t>9698</t>
-  </si>
-  <si>
-    <t>10234</t>
-  </si>
-  <si>
-    <t>10880</t>
-  </si>
-  <si>
-    <t>11817.7412918</t>
-  </si>
-  <si>
-    <t>11968.7801811</t>
-  </si>
-  <si>
-    <t>12275.0944414</t>
-  </si>
-  <si>
-    <t>12533.0836838</t>
-  </si>
-  <si>
-    <t>13191.0978601</t>
-  </si>
-  <si>
-    <t>14388.5508413</t>
-  </si>
-  <si>
-    <t>15386.9362903</t>
-  </si>
-  <si>
-    <t>16857.8980395</t>
-  </si>
-  <si>
-    <t>17944.8526157</t>
-  </si>
-  <si>
-    <t>19479.4482444</t>
-  </si>
-  <si>
-    <t>21026.8196327</t>
-  </si>
-  <si>
-    <t>21747.2280321</t>
-  </si>
-  <si>
-    <t>22670.7075535</t>
-  </si>
-  <si>
-    <t>23206.3405602</t>
-  </si>
-  <si>
-    <t>23724.8897623</t>
-  </si>
-  <si>
-    <t>24348.760118</t>
-  </si>
-  <si>
-    <t>24988.521752</t>
-  </si>
-  <si>
-    <t>25623.6792927</t>
-  </si>
-  <si>
-    <t>24324.2859767</t>
-  </si>
-  <si>
-    <t>22315.2379913</t>
-  </si>
-  <si>
-    <t>22013.1388819</t>
+    <t>4141</t>
+  </si>
+  <si>
+    <t>4105</t>
+  </si>
+  <si>
+    <t>4095</t>
+  </si>
+  <si>
+    <t>4101</t>
+  </si>
+  <si>
+    <t>4100</t>
+  </si>
+  <si>
+    <t>4229</t>
+  </si>
+  <si>
+    <t>4363</t>
+  </si>
+  <si>
+    <t>4501</t>
+  </si>
+  <si>
+    <t>4618</t>
+  </si>
+  <si>
+    <t>4737</t>
+  </si>
+  <si>
+    <t>4599</t>
+  </si>
+  <si>
+    <t>4463</t>
+  </si>
+  <si>
+    <t>4594</t>
+  </si>
+  <si>
+    <t>4728</t>
+  </si>
+  <si>
+    <t>4865</t>
+  </si>
+  <si>
+    <t>4713</t>
+  </si>
+  <si>
+    <t>4812</t>
+  </si>
+  <si>
+    <t>4929</t>
+  </si>
+  <si>
+    <t>5149</t>
+  </si>
+  <si>
+    <t>5426</t>
+  </si>
+  <si>
+    <t>5504</t>
+  </si>
+  <si>
+    <t>5649</t>
+  </si>
+  <si>
+    <t>5805</t>
+  </si>
+  <si>
+    <t>5973</t>
+  </si>
+  <si>
+    <t>6048</t>
+  </si>
+  <si>
+    <t>6248</t>
+  </si>
+  <si>
+    <t>6212</t>
+  </si>
+  <si>
+    <t>6239</t>
+  </si>
+  <si>
+    <t>6169</t>
+  </si>
+  <si>
+    <t>6437</t>
+  </si>
+  <si>
+    <t>6825</t>
+  </si>
+  <si>
+    <t>7186</t>
+  </si>
+  <si>
+    <t>7390</t>
+  </si>
+  <si>
+    <t>7685</t>
+  </si>
+  <si>
+    <t>7948</t>
+  </si>
+  <si>
+    <t>8051</t>
+  </si>
+  <si>
+    <t>8097</t>
+  </si>
+  <si>
+    <t>8531</t>
+  </si>
+  <si>
+    <t>9197</t>
+  </si>
+  <si>
+    <t>9706</t>
+  </si>
+  <si>
+    <t>9881</t>
+  </si>
+  <si>
+    <t>10128</t>
+  </si>
+  <si>
+    <t>10621</t>
+  </si>
+  <si>
+    <t>10946</t>
+  </si>
+  <si>
+    <t>11225</t>
+  </si>
+  <si>
+    <t>11662</t>
+  </si>
+  <si>
+    <t>11639</t>
+  </si>
+  <si>
+    <t>12425</t>
+  </si>
+  <si>
+    <t>13150</t>
+  </si>
+  <si>
+    <t>13335</t>
+  </si>
+  <si>
+    <t>13614</t>
+  </si>
+  <si>
+    <t>13893</t>
+  </si>
+  <si>
+    <t>14061</t>
+  </si>
+  <si>
+    <t>13931</t>
+  </si>
+  <si>
+    <t>14435</t>
+  </si>
+  <si>
+    <t>14834</t>
+  </si>
+  <si>
+    <t>14768</t>
+  </si>
+  <si>
+    <t>15458</t>
+  </si>
+  <si>
+    <t>16313</t>
+  </si>
+  <si>
+    <t>17343</t>
+  </si>
+  <si>
+    <t>18838</t>
+  </si>
+  <si>
+    <t>19253.9434511805</t>
+  </si>
+  <si>
+    <t>20032.7186903767</t>
+  </si>
+  <si>
+    <t>20627.0785724041</t>
+  </si>
+  <si>
+    <t>22004.8139153003</t>
+  </si>
+  <si>
+    <t>24266.1422151915</t>
+  </si>
+  <si>
+    <t>26562.9089844149</t>
+  </si>
+  <si>
+    <t>29455.9203494766</t>
+  </si>
+  <si>
+    <t>31908.6479040328</t>
+  </si>
+  <si>
+    <t>35377.1621932825</t>
+  </si>
+  <si>
+    <t>38806.5013574153</t>
+  </si>
+  <si>
+    <t>40966.3329700636</t>
+  </si>
+  <si>
+    <t>43012.8146170694</t>
+  </si>
+  <si>
+    <t>44372.7564064811</t>
+  </si>
+  <si>
+    <t>47028.8647351758</t>
+  </si>
+  <si>
+    <t>49223.3830552297</t>
+  </si>
+  <si>
+    <t>51296.194414648</t>
+  </si>
+  <si>
+    <t>52322.2312530697</t>
+  </si>
+  <si>
+    <t>49583.1415262939</t>
+  </si>
+  <si>
+    <t>47375.7345392526</t>
+  </si>
+  <si>
+    <t>48623.8105155844</t>
+  </si>
+  <si>
+    <t>48980</t>
+  </si>
+  <si>
+    <t>48333</t>
+  </si>
+  <si>
+    <t>48743</t>
+  </si>
+  <si>
+    <t>52651</t>
+  </si>
+  <si>
+    <t>54278</t>
+  </si>
+  <si>
+    <t>56597</t>
   </si>
   <si>
     <t>Description</t>
@@ -3642,6 +3660,108 @@
         <v>92</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>372.0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3657,50 +3777,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
